--- a/Libraries/Vehicle/Springs/Spring/sm_car_data_Spring_Decoupled.xlsx
+++ b/Libraries/Vehicle/Springs/Spring/sm_car_data_Spring_Decoupled.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\smiller\ssvt\Libraries\Vehicle\Springs\Spring\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt\Libraries\Vehicle\Springs\Spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F51D7A-537F-421E-ADB3-721419B3E1F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{200C19B3-7617-4731-9532-10A4E95EA0E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="1092" windowWidth="16860" windowHeight="11508" xr2:uid="{E9832118-9B9C-4D7F-8E66-D8129982A59D}"/>
+    <workbookView xWindow="3705" yWindow="1440" windowWidth="21600" windowHeight="12915" xr2:uid="{E9832118-9B9C-4D7F-8E66-D8129982A59D}"/>
   </bookViews>
   <sheets>
     <sheet name="Achilles_DWDec_f" sheetId="2" r:id="rId1"/>
@@ -635,7 +635,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -653,7 +653,7 @@
       <selection activeCell="O21" sqref="O21"/>
       <selection pane="topRight" activeCell="O21" sqref="O21"/>
       <selection pane="bottomLeft" activeCell="O21" sqref="O21"/>
-      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomRight" activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Libraries/Vehicle/Springs/Spring/sm_car_data_Spring_Decoupled.xlsx
+++ b/Libraries/Vehicle/Springs/Spring/sm_car_data_Spring_Decoupled.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt\Libraries\Vehicle\Springs\Spring\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\veh-tpl\Libraries\Vehicle\Springs\Spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{200C19B3-7617-4731-9532-10A4E95EA0E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F175346-F6F8-48F7-8ECC-0B3FB8E96D32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3705" yWindow="1440" windowWidth="21600" windowHeight="12915" xr2:uid="{E9832118-9B9C-4D7F-8E66-D8129982A59D}"/>
+    <workbookView xWindow="3135" yWindow="3810" windowWidth="14070" windowHeight="11295" activeTab="1" xr2:uid="{E9832118-9B9C-4D7F-8E66-D8129982A59D}"/>
   </bookViews>
   <sheets>
     <sheet name="Achilles_DWDec_f" sheetId="2" r:id="rId1"/>
@@ -220,91 +220,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{684AF598-8531-475A-AC5C-A0605978127D}"/>
   </cellStyles>
-  <dxfs count="16">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
@@ -347,9 +263,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -387,7 +303,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -493,7 +409,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -635,7 +551,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -648,12 +564,12 @@
   </sheetPr>
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="O21" sqref="O21"/>
       <selection pane="topRight" activeCell="O21" sqref="O21"/>
       <selection pane="bottomLeft" activeCell="O21" sqref="O21"/>
-      <selection pane="bottomRight" activeCell="L3" sqref="L3"/>
+      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -919,43 +835,13 @@
       <c r="H19" s="3"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A14:B17 A12:A13 A4:A8">
-    <cfRule type="cellIs" dxfId="15" priority="10" operator="equal">
+  <conditionalFormatting sqref="A18:A19">
+    <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A19">
-    <cfRule type="cellIs" dxfId="14" priority="8" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A18">
-    <cfRule type="cellIs" dxfId="13" priority="9" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B5:B8">
-    <cfRule type="cellIs" dxfId="12" priority="7" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B10:B13">
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4">
-    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9:A11">
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B9">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+  <conditionalFormatting sqref="A4:B17">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -970,12 +856,12 @@
   </sheetPr>
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="O21" sqref="O21"/>
       <selection pane="topRight" activeCell="O21" sqref="O21"/>
       <selection pane="bottomLeft" activeCell="O21" sqref="O21"/>
-      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
+      <selection pane="bottomRight" activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1241,42 +1127,12 @@
       <c r="H19" s="3"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A14:B17 A12:A13 A4:A8">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+  <conditionalFormatting sqref="A18:A19">
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A19">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A18">
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B5:B8">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B10:B13">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9:A11">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B9">
+  <conditionalFormatting sqref="A4:B17">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>

--- a/Libraries/Vehicle/Springs/Spring/sm_car_data_Spring_Decoupled.xlsx
+++ b/Libraries/Vehicle/Springs/Spring/sm_car_data_Spring_Decoupled.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\veh-tpl\Libraries\Vehicle\Springs\Spring\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt_srcR22a\Libraries\Vehicle\Springs\Spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F175346-F6F8-48F7-8ECC-0B3FB8E96D32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6E8960B-9B9E-4315-9912-3B18B6545B48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3135" yWindow="3810" windowWidth="14070" windowHeight="11295" activeTab="1" xr2:uid="{E9832118-9B9C-4D7F-8E66-D8129982A59D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E9832118-9B9C-4D7F-8E66-D8129982A59D}"/>
   </bookViews>
   <sheets>
     <sheet name="Achilles_DWDec_f" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="24">
   <si>
     <t>m</t>
   </si>
@@ -52,9 +52,6 @@
     <t>sBottom</t>
   </si>
   <si>
-    <t>Also in Linkage</t>
-  </si>
-  <si>
     <t>sTop</t>
   </si>
   <si>
@@ -98,6 +95,18 @@
   </si>
   <si>
     <t>FSAE_Achilles_DWDec_Linear_A2</t>
+  </si>
+  <si>
+    <t>Must be consistent with values in Linkage</t>
+  </si>
+  <si>
+    <t>fPreload</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Set either xPreload or fPreload to a nonzero value</t>
   </si>
 </sst>
 </file>
@@ -176,7 +185,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -196,7 +205,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -215,6 +223,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -562,14 +577,14 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="O21" sqref="O21"/>
-      <selection pane="topRight" activeCell="O21" sqref="O21"/>
-      <selection pane="bottomLeft" activeCell="O21" sqref="O21"/>
-      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
+      <selection activeCell="C37" sqref="C37"/>
+      <selection pane="topRight" activeCell="C37" sqref="C37"/>
+      <selection pane="bottomLeft" activeCell="C37" sqref="C37"/>
+      <selection pane="bottomRight" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -578,91 +593,96 @@
     <col min="2" max="2" width="12.7109375" style="1" customWidth="1"/>
     <col min="3" max="5" width="11.140625" style="1" customWidth="1"/>
     <col min="6" max="8" width="10" style="1" customWidth="1"/>
-    <col min="9" max="15" width="6.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="38.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="6.7109375" style="1" customWidth="1"/>
     <col min="16" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="18"/>
-      <c r="B1" s="16"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="16" t="s">
+      <c r="A1" s="17"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="F1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="G1" s="15" t="s">
         <v>15</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="15" t="s">
-        <v>13</v>
+      <c r="H2" s="14" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
-      <c r="H3" s="15" t="s">
-        <v>11</v>
+      <c r="H3" s="14" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
-      <c r="H4" s="12" t="s">
-        <v>9</v>
+      <c r="H4" s="11" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="19">
-        <v>0</v>
-      </c>
-      <c r="G5" s="19">
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="18">
+        <v>0</v>
+      </c>
+      <c r="G5" s="18">
         <v>0.3</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="18">
         <v>0.45</v>
       </c>
-      <c r="J5" s="11" t="s">
-        <v>5</v>
+      <c r="J5" s="19" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -674,14 +694,20 @@
       <c r="D6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="19">
-        <v>0</v>
-      </c>
-      <c r="G6" s="19">
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="18">
+        <v>0</v>
+      </c>
+      <c r="G6" s="18">
         <v>-0.3</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="18">
         <v>0.45</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -709,7 +735,9 @@
       <c r="D8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F8" s="5"/>
+      <c r="E8" s="22" t="s">
+        <v>23</v>
+      </c>
       <c r="G8" s="5"/>
       <c r="H8" s="4">
         <f>0.025057</f>
@@ -717,106 +745,140 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="12" t="s">
+      <c r="A9" s="7"/>
+      <c r="B9" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="21"/>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="22"/>
+      <c r="H9" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="13" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="10" t="s">
-        <v>6</v>
-      </c>
       <c r="C10" s="6"/>
-      <c r="D10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F10" s="19">
-        <v>0.05</v>
-      </c>
-      <c r="G10" s="19">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="H10" s="19">
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>5</v>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="11" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F11" s="19">
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="18">
         <v>0.05</v>
       </c>
-      <c r="G11" s="19">
-        <v>-0.27500000000000002</v>
-      </c>
-      <c r="H11" s="19">
-        <v>0.32500000000000001</v>
+      <c r="G11" s="18">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="H11" s="18">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="J11" s="19" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="7" t="s">
-        <v>3</v>
+      <c r="B12" s="10" t="s">
+        <v>4</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="8">
-        <f>43.78*1000</f>
-        <v>43780</v>
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="18">
+        <v>0.05</v>
+      </c>
+      <c r="G12" s="18">
+        <v>-0.27500000000000002</v>
+      </c>
+      <c r="H12" s="18">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="J12" s="19" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="7" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
-      <c r="H13" s="4">
-        <v>0</v>
+      <c r="H13" s="8">
+        <f>43.78*1000</f>
+        <v>43780</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="2"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="21"/>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="22"/>
+      <c r="H15" s="23">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="2"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
@@ -827,20 +889,25 @@
       <c r="H17" s="4"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="2"/>
-      <c r="H18" s="3"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="H19" s="3"/>
     </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="2"/>
+      <c r="H20" s="3"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A18:A19">
-    <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
+  <conditionalFormatting sqref="A19:A20">
+    <cfRule type="cellIs" dxfId="3" priority="12" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:B17">
+  <conditionalFormatting sqref="A4:B18">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
@@ -854,14 +921,14 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="O21" sqref="O21"/>
-      <selection pane="topRight" activeCell="O21" sqref="O21"/>
-      <selection pane="bottomLeft" activeCell="O21" sqref="O21"/>
-      <selection pane="bottomRight" activeCell="K4" sqref="K4"/>
+      <selection activeCell="F21" sqref="F21"/>
+      <selection pane="topRight" activeCell="F21" sqref="F21"/>
+      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
+      <selection pane="bottomRight" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -870,91 +937,96 @@
     <col min="2" max="2" width="12.7109375" style="1" customWidth="1"/>
     <col min="3" max="5" width="11.140625" style="1" customWidth="1"/>
     <col min="6" max="8" width="10" style="1" customWidth="1"/>
-    <col min="9" max="15" width="6.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="38.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="6.7109375" style="1" customWidth="1"/>
     <col min="16" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="18"/>
-      <c r="B1" s="16"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="16" t="s">
+      <c r="A1" s="17"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="F1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="G1" s="15" t="s">
         <v>15</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="15" t="s">
-        <v>13</v>
+      <c r="H2" s="14" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
-      <c r="H3" s="15" t="s">
-        <v>20</v>
+      <c r="H3" s="14" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
-      <c r="H4" s="12" t="s">
-        <v>9</v>
+      <c r="H4" s="11" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="19">
-        <v>0</v>
-      </c>
-      <c r="G5" s="19">
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="18">
+        <v>0</v>
+      </c>
+      <c r="G5" s="18">
         <v>0.3</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="18">
         <v>0.45</v>
       </c>
-      <c r="J5" s="11" t="s">
-        <v>5</v>
+      <c r="J5" s="19" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -966,14 +1038,20 @@
       <c r="D6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="19">
-        <v>0</v>
-      </c>
-      <c r="G6" s="19">
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="18">
+        <v>0</v>
+      </c>
+      <c r="G6" s="18">
         <v>-0.3</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="18">
         <v>0.45</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1001,7 +1079,9 @@
       <c r="D8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F8" s="5"/>
+      <c r="E8" s="22" t="s">
+        <v>23</v>
+      </c>
       <c r="G8" s="5"/>
       <c r="H8" s="4">
         <f>0.020328</f>
@@ -1009,106 +1089,140 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="12" t="s">
+      <c r="A9" s="7"/>
+      <c r="B9" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="21"/>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="22"/>
+      <c r="H9" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="13" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="10" t="s">
-        <v>6</v>
-      </c>
       <c r="C10" s="6"/>
-      <c r="D10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F10" s="19">
-        <v>0.05</v>
-      </c>
-      <c r="G10" s="19">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="H10" s="19">
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>5</v>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="11" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F11" s="19">
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="18">
         <v>0.05</v>
       </c>
-      <c r="G11" s="19">
-        <v>-0.27500000000000002</v>
-      </c>
-      <c r="H11" s="19">
-        <v>0.32500000000000001</v>
+      <c r="G11" s="18">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="H11" s="18">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="J11" s="19" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="7" t="s">
-        <v>3</v>
+      <c r="B12" s="10" t="s">
+        <v>4</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="8">
-        <f>43.78*1000</f>
-        <v>43780</v>
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="18">
+        <v>0.05</v>
+      </c>
+      <c r="G12" s="18">
+        <v>-0.27500000000000002</v>
+      </c>
+      <c r="H12" s="18">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="J12" s="19" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="7" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
-      <c r="H13" s="4">
-        <v>0</v>
+      <c r="H13" s="8">
+        <f>43.78*1000</f>
+        <v>43780</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="2"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="21"/>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="22"/>
+      <c r="H15" s="23">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="2"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
@@ -1119,20 +1233,25 @@
       <c r="H17" s="4"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="2"/>
-      <c r="H18" s="3"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="H19" s="3"/>
     </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="2"/>
+      <c r="H20" s="3"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A18:A19">
-    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
+  <conditionalFormatting sqref="A19:A20">
+    <cfRule type="cellIs" dxfId="1" priority="10" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:B17">
+  <conditionalFormatting sqref="A4:B18">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
